--- a/BackTest/2020-01-22 BackTest LINK.xlsx
+++ b/BackTest/2020-01-22 BackTest LINK.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-6883.063106557378</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>-7398.063106557378</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3053</v>
-      </c>
-      <c r="J3" t="n">
-        <v>3053</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,19 +517,11 @@
         <v>-7387.025306557378</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="n">
-        <v>3041</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3053</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,19 +550,11 @@
         <v>-7387.025306557378</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>3050</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3053</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -603,14 +583,10 @@
         <v>-7284.797506557378</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>3050</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3050</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -640,19 +616,11 @@
         <v>-7284.797506557378</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>3068</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3050</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -684,14 +652,8 @@
         <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="n">
-        <v>3050</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -918,14 +880,10 @@
         <v>-13532.69130655738</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
-      </c>
-      <c r="I15" t="n">
-        <v>3073</v>
-      </c>
-      <c r="J15" t="n">
-        <v>3073</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
@@ -955,19 +913,11 @@
         <v>-12329.87430655738</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
-      </c>
-      <c r="I16" t="n">
-        <v>3074</v>
-      </c>
-      <c r="J16" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -996,19 +946,11 @@
         <v>-12333.02800655738</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
-      </c>
-      <c r="I17" t="n">
-        <v>3082</v>
-      </c>
-      <c r="J17" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1037,19 +979,11 @@
         <v>-12333.02800655738</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
-      </c>
-      <c r="I18" t="n">
-        <v>3077</v>
-      </c>
-      <c r="J18" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1078,19 +1012,11 @@
         <v>-12982.03980655738</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
-      </c>
-      <c r="I19" t="n">
-        <v>3077</v>
-      </c>
-      <c r="J19" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1119,17 +1045,15 @@
         <v>-13157.24086252874</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>3076</v>
       </c>
-      <c r="J20" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L20" t="n">
@@ -1160,14 +1084,12 @@
         <v>-13157.57866252874</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>3073</v>
       </c>
-      <c r="J21" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1201,12 +1123,12 @@
         <v>-14067.87606252874</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>3073</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>3060</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1240,14 +1162,12 @@
         <v>-14067.87606252874</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>3055</v>
       </c>
-      <c r="J23" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1281,14 +1201,12 @@
         <v>-14499.21096252874</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>3055</v>
       </c>
-      <c r="J24" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1322,12 +1240,12 @@
         <v>-14654.95826252874</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>3073</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>3045</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1361,12 +1279,12 @@
         <v>-16017.33396252874</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>3073</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>3042</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1400,12 +1318,12 @@
         <v>-15079.42546252874</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>3073</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>3040</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1439,12 +1357,12 @@
         <v>-15079.42546252874</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>3073</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>3050</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1478,12 +1396,12 @@
         <v>-15008.44726252875</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>3073</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>3050</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1517,12 +1435,12 @@
         <v>-15008.44726252875</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>3073</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>3067</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1556,12 +1474,12 @@
         <v>-14904.88536252874</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>3073</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>3067</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1595,12 +1513,12 @@
         <v>-18069.88536252874</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>3073</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>3074</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1634,12 +1552,12 @@
         <v>-18069.88536252874</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>3073</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>3071</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1673,12 +1591,12 @@
         <v>-18069.88536252874</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>3073</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>3071</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1712,12 +1630,12 @@
         <v>-18069.88536252874</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>3073</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>3071</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1751,12 +1669,12 @@
         <v>-18069.88536252874</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>3073</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>3071</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1790,12 +1708,12 @@
         <v>-17869.88536252874</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>3073</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>3071</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1829,12 +1747,12 @@
         <v>-14963.15546252874</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>3073</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>3083</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1868,12 +1786,12 @@
         <v>-14945.53426252874</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>3073</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>3094</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1910,9 +1828,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1949,9 +1865,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1988,9 +1902,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2027,9 +1939,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2066,9 +1976,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2105,9 +2013,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2144,9 +2050,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2183,9 +2087,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2222,9 +2124,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2261,9 +2161,7 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2300,9 +2198,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2339,9 +2235,7 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2378,9 +2272,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2414,12 +2306,12 @@
         <v>-14628.51632704487</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>3073</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>3086</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2453,12 +2345,12 @@
         <v>-15407.86272704487</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>3073</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>3100</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2492,12 +2384,12 @@
         <v>-13175.45232704487</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>3073</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>3078</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2531,12 +2423,12 @@
         <v>-12977.71332704487</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>3073</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>3086</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2570,12 +2462,12 @@
         <v>-12977.71332704487</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>3073</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>3094</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2609,12 +2501,12 @@
         <v>-13131.63482704487</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>3073</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>3094</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2648,12 +2540,12 @@
         <v>-13131.63482704487</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>3073</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>3084</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2687,12 +2579,12 @@
         <v>-16826.25032704487</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>3073</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>3084</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2726,12 +2618,12 @@
         <v>-16902.33022704487</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>3073</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>3065</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2765,12 +2657,12 @@
         <v>-18279.71312704487</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>3073</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>3062</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2804,12 +2696,12 @@
         <v>-17628.01312704487</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>3073</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>3046</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2843,12 +2735,12 @@
         <v>-17628.01312704487</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>3073</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>3058</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2882,12 +2774,12 @@
         <v>-17642.86762704487</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>3073</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>3058</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2921,12 +2813,12 @@
         <v>-17642.86762704487</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>3073</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>3047</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2960,12 +2852,12 @@
         <v>-18296.37802704487</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>3073</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>3047</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2999,12 +2891,12 @@
         <v>-18292.85742704487</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>3073</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>3045</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3038,12 +2930,12 @@
         <v>-18296.12326636558</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>3073</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>3075</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3080,9 +2972,7 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3119,9 +3009,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3155,12 +3043,12 @@
         <v>-19560.73576636558</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>3073</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>3053</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3194,12 +3082,12 @@
         <v>-19564.25636636558</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>3073</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>3053</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3233,12 +3121,12 @@
         <v>-19533.35676636558</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>3073</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>3047</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3272,12 +3160,12 @@
         <v>-19533.35676636558</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>3073</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>3053</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3311,12 +3199,12 @@
         <v>-19533.35676636558</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>3073</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>3053</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3350,12 +3238,12 @@
         <v>-19896.24116636558</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>3073</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>3053</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3389,12 +3277,12 @@
         <v>-20026.27986757909</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>3073</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>3052</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3428,12 +3316,12 @@
         <v>-20070.57716757909</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>3073</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>3049</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3467,12 +3355,12 @@
         <v>-20070.57716757909</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>3073</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>3041</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3506,12 +3394,12 @@
         <v>-20070.57716757909</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>3073</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>3041</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3545,12 +3433,12 @@
         <v>-20000.07716757909</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>3073</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>3041</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3584,12 +3472,12 @@
         <v>-12826.15635441171</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>3073</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>3049</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3623,12 +3511,12 @@
         <v>-12826.15635441171</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>3073</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>3066</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3665,9 +3553,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3704,9 +3590,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3743,9 +3627,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3782,9 +3664,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3821,9 +3701,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3860,9 +3738,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3899,9 +3775,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3938,9 +3812,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3977,9 +3849,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4016,9 +3886,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4055,9 +3923,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4094,9 +3960,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4133,9 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4172,9 +4034,7 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4211,9 +4071,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4250,9 +4108,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4289,9 +4145,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4328,9 +4182,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4367,9 +4219,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4406,9 +4256,7 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4445,9 +4293,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4484,9 +4330,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4523,9 +4367,7 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4562,9 +4404,7 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4601,9 +4441,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4640,9 +4478,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4679,9 +4515,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4718,9 +4552,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4757,9 +4589,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4796,9 +4626,7 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4835,9 +4663,7 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4874,9 +4700,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4913,9 +4737,7 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4952,9 +4774,7 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4991,9 +4811,7 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5030,9 +4848,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5069,9 +4885,7 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5108,9 +4922,7 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5147,9 +4959,7 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5186,9 +4996,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5225,9 +5033,7 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5264,9 +5070,7 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5303,9 +5107,7 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5342,9 +5144,7 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5381,9 +5181,7 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5420,9 +5218,7 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5456,12 +5252,12 @@
         <v>-9333.320595531088</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>3073</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>3075</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5498,9 +5294,7 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5537,9 +5331,7 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5576,9 +5368,7 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5615,9 +5405,7 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5654,9 +5442,7 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5693,9 +5479,7 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5732,9 +5516,7 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5771,9 +5553,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5810,9 +5590,7 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5849,9 +5627,7 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5888,9 +5664,7 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5927,9 +5701,7 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5963,12 +5735,12 @@
         <v>-11714.48751905024</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
         <v>3073</v>
       </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6005,9 +5777,7 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6044,9 +5814,7 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6083,9 +5851,7 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6122,9 +5888,7 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6161,9 +5925,7 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6200,9 +5962,7 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6239,9 +5999,7 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6278,9 +6036,7 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6317,9 +6073,7 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6356,9 +6110,7 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6395,9 +6147,7 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6434,9 +6184,7 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6473,9 +6221,7 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6512,9 +6258,7 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6551,9 +6295,7 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6590,9 +6332,7 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6629,9 +6369,7 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6665,12 +6403,12 @@
         <v>-12667.71251905024</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>3073</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>3061</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6704,12 +6442,12 @@
         <v>-12927.71241905024</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>3073</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>3071</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6743,12 +6481,12 @@
         <v>-12927.71241905024</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>3073</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>3059</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6782,12 +6520,12 @@
         <v>-12927.71241905024</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>3073</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>3059</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6824,9 +6562,7 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6860,12 +6596,12 @@
         <v>-12983.71241905024</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>3073</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>3057</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6899,12 +6635,12 @@
         <v>-12619.38721905024</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>3073</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>3057</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6941,9 +6677,7 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6980,9 +6714,7 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7019,9 +6751,7 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7058,9 +6788,7 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7097,9 +6825,7 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7136,9 +6862,7 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7175,9 +6899,7 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7214,9 +6936,7 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7253,9 +6973,7 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7292,9 +7010,7 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7331,9 +7047,7 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7370,9 +7084,7 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7409,9 +7121,7 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7448,9 +7158,7 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7487,9 +7195,7 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7526,9 +7232,7 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7565,9 +7269,7 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7604,9 +7306,7 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7643,9 +7343,7 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7682,9 +7380,7 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7721,9 +7417,7 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7760,9 +7454,7 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7799,9 +7491,7 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7838,9 +7528,7 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7877,9 +7565,7 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7916,9 +7602,7 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7955,9 +7639,7 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7994,9 +7676,7 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8033,9 +7713,7 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8072,9 +7750,7 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8111,9 +7787,7 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8150,9 +7824,7 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8189,9 +7861,7 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8228,9 +7898,7 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8267,9 +7935,7 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8306,9 +7972,7 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8345,9 +8009,7 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8384,9 +8046,7 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8423,9 +8083,7 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8462,9 +8120,7 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8501,9 +8157,7 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8540,9 +8194,7 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8579,9 +8231,7 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8618,9 +8268,7 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8657,9 +8305,7 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8696,9 +8342,7 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8735,9 +8379,7 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8774,9 +8416,7 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8813,9 +8453,7 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8852,9 +8490,7 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8891,9 +8527,7 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8930,9 +8564,7 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8969,9 +8601,7 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9008,9 +8638,7 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9047,9 +8675,7 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9086,9 +8712,7 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9125,9 +8749,7 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9164,9 +8786,7 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9203,9 +8823,7 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9242,9 +8860,7 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9281,9 +8897,7 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9320,9 +8934,7 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9359,9 +8971,7 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9398,9 +9008,7 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9437,9 +9045,7 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9476,9 +9082,7 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9515,9 +9119,7 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9554,9 +9156,7 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9593,9 +9193,7 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9632,9 +9230,7 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9671,9 +9267,7 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9710,9 +9304,7 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9749,9 +9341,7 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9788,9 +9378,7 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9827,9 +9415,7 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9866,9 +9452,7 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9905,9 +9489,7 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9944,9 +9526,7 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9983,9 +9563,7 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10022,9 +9600,7 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10061,9 +9637,7 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10100,9 +9674,7 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10139,9 +9711,7 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10178,9 +9748,7 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10217,9 +9785,7 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10256,9 +9822,7 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10295,9 +9859,7 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10334,9 +9896,7 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10373,9 +9933,7 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10412,9 +9970,7 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10451,9 +10007,7 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10490,9 +10044,7 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10529,9 +10081,7 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10568,9 +10118,7 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10607,9 +10155,7 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10646,9 +10192,7 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10685,9 +10229,7 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10721,20 +10263,16 @@
         <v>253648.9658426472</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>3073</v>
-      </c>
+      <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L266" t="inlineStr"/>
       <c r="M266" t="inlineStr"/>
     </row>
     <row r="267">
@@ -10760,17 +10298,11 @@
         <v>247639.0406426472</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10799,17 +10331,11 @@
         <v>235889.0532426471</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10838,17 +10364,11 @@
         <v>236394.0008426472</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10877,17 +10397,11 @@
         <v>236314.8852426472</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10916,17 +10430,11 @@
         <v>236341.4802426472</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10955,17 +10463,11 @@
         <v>236341.4802426472</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10994,17 +10496,11 @@
         <v>238618.5923426472</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -11033,17 +10529,11 @@
         <v>238248.0576426472</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -11072,17 +10562,11 @@
         <v>240593.9314426472</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -11111,17 +10595,11 @@
         <v>246593.9314426472</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -11150,17 +10628,11 @@
         <v>246141.7884426472</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -11189,17 +10661,11 @@
         <v>246141.7884426472</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -11228,17 +10694,11 @@
         <v>245240.3799426472</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -11267,17 +10727,11 @@
         <v>245737.5256426472</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -11306,17 +10760,11 @@
         <v>245935.4301426472</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -11345,17 +10793,11 @@
         <v>245788.5480426472</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -11384,17 +10826,11 @@
         <v>245788.5480426472</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -11423,17 +10859,11 @@
         <v>245298.0304426472</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -11462,17 +10892,11 @@
         <v>245266.4133426472</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -11501,17 +10925,11 @@
         <v>245266.4133426472</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -11540,17 +10958,11 @@
         <v>245752.604790395</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -11579,17 +10991,11 @@
         <v>245752.604790395</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11618,17 +11024,11 @@
         <v>246042.081090395</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11657,17 +11057,11 @@
         <v>246027.481090395</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11696,17 +11090,11 @@
         <v>246011.391890395</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11738,14 +11126,8 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11774,17 +11156,11 @@
         <v>246045.139490395</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11816,14 +11192,8 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11855,14 +11225,8 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11894,14 +11258,8 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11930,17 +11288,11 @@
         <v>245949.537590395</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11972,14 +11324,8 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -12011,14 +11357,8 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -12050,14 +11390,8 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -12089,14 +11423,8 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -12125,17 +11453,11 @@
         <v>238572.599267234</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -12164,17 +11486,11 @@
         <v>238272.599267234</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -12203,17 +11519,11 @@
         <v>242517.711267234</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -12242,17 +11552,11 @@
         <v>242821.283067234</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -12281,17 +11585,11 @@
         <v>250101.677267234</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -12320,17 +11618,11 @@
         <v>250101.677267234</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -12359,17 +11651,11 @@
         <v>250001.677267234</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -12398,17 +11684,11 @@
         <v>249427.6774672341</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -12437,17 +11717,11 @@
         <v>249427.6774672341</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -12476,17 +11750,11 @@
         <v>249427.6774672341</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -12515,17 +11783,11 @@
         <v>249427.6774672341</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -12554,17 +11816,11 @@
         <v>249427.6774672341</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -12593,17 +11849,11 @@
         <v>249427.6774672341</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -12632,17 +11882,11 @@
         <v>249427.6774672341</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -12671,17 +11915,11 @@
         <v>249427.6774672341</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -12710,17 +11948,11 @@
         <v>258903.8536028452</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -12749,17 +11981,11 @@
         <v>258458.9536028452</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -12788,17 +12014,11 @@
         <v>258437.6110028452</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -12830,14 +12050,8 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -12869,14 +12083,8 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -12908,14 +12116,8 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -12947,14 +12149,8 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -12986,14 +12182,8 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -13022,17 +12212,11 @@
         <v>258086.6615028452</v>
       </c>
       <c r="H325" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -13061,17 +12245,11 @@
         <v>258176.2620028452</v>
       </c>
       <c r="H326" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -13103,14 +12281,8 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -13142,14 +12314,8 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -13181,14 +12347,8 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -13217,17 +12377,11 @@
         <v>259113.4513028452</v>
       </c>
       <c r="H330" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -13259,14 +12413,8 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -13295,17 +12443,11 @@
         <v>259672.1597028452</v>
       </c>
       <c r="H332" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -13334,17 +12476,11 @@
         <v>259672.1597028452</v>
       </c>
       <c r="H333" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -13373,17 +12509,11 @@
         <v>259615.6291028452</v>
       </c>
       <c r="H334" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -13415,14 +12545,8 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -13454,14 +12578,8 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J336" t="inlineStr"/>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -13493,14 +12611,8 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -13532,14 +12644,8 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -13571,14 +12677,8 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J339" t="inlineStr"/>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -13607,17 +12707,11 @@
         <v>259441.2180028452</v>
       </c>
       <c r="H340" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -13646,17 +12740,11 @@
         <v>259162.4229028452</v>
       </c>
       <c r="H341" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -13688,14 +12776,8 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -13727,14 +12809,8 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -13763,17 +12839,11 @@
         <v>257607.2075254258</v>
       </c>
       <c r="H344" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -13805,14 +12875,8 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J345" t="inlineStr"/>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -13844,14 +12908,8 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J346" t="inlineStr"/>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -13883,14 +12941,8 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J347" t="inlineStr"/>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -13919,17 +12971,11 @@
         <v>259231.1806254258</v>
       </c>
       <c r="H348" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J348" t="inlineStr"/>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -13958,17 +13004,11 @@
         <v>259022.9785254258</v>
       </c>
       <c r="H349" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J349" t="inlineStr"/>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -14000,14 +13040,8 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J350" t="inlineStr"/>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -14039,14 +13073,8 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J351" t="inlineStr"/>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -14075,17 +13103,11 @@
         <v>258285.7935254258</v>
       </c>
       <c r="H352" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J352" t="inlineStr"/>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -14114,17 +13136,11 @@
         <v>258123.5611254258</v>
       </c>
       <c r="H353" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J353" t="inlineStr"/>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -14153,17 +13169,11 @@
         <v>258402.2617254258</v>
       </c>
       <c r="H354" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J354" t="inlineStr"/>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -14192,17 +13202,11 @@
         <v>258402.2617254258</v>
       </c>
       <c r="H355" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J355" t="inlineStr"/>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -14231,17 +13235,11 @@
         <v>258546.6812254258</v>
       </c>
       <c r="H356" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J356" t="inlineStr"/>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -14270,17 +13268,11 @@
         <v>258546.6812254258</v>
       </c>
       <c r="H357" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -14309,17 +13301,11 @@
         <v>258546.6812254258</v>
       </c>
       <c r="H358" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -14348,17 +13334,11 @@
         <v>256479.3014254258</v>
       </c>
       <c r="H359" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -14387,17 +13367,11 @@
         <v>256511.5412254258</v>
       </c>
       <c r="H360" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -14429,14 +13403,8 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -14465,17 +13433,11 @@
         <v>256389.2880254258</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J362" t="inlineStr"/>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -14507,14 +13469,8 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J363" t="inlineStr"/>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -14543,17 +13499,11 @@
         <v>256211.0035254258</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -14582,17 +13532,11 @@
         <v>255710.6915254258</v>
       </c>
       <c r="H365" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J365" t="inlineStr"/>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -14621,17 +13565,11 @@
         <v>255691.9923254258</v>
       </c>
       <c r="H366" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -14660,17 +13598,11 @@
         <v>255365.8722254258</v>
       </c>
       <c r="H367" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J367" t="inlineStr"/>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -14699,17 +13631,11 @@
         <v>255287.9841254258</v>
       </c>
       <c r="H368" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J368" t="inlineStr"/>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -14738,17 +13664,11 @@
         <v>255287.9841254258</v>
       </c>
       <c r="H369" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J369" t="inlineStr"/>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -14777,17 +13697,11 @@
         <v>255172.7635254258</v>
       </c>
       <c r="H370" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J370" t="inlineStr"/>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -14816,17 +13730,11 @@
         <v>255162.7635254258</v>
       </c>
       <c r="H371" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J371" t="inlineStr"/>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -14855,17 +13763,11 @@
         <v>254862.7635254258</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J372" t="inlineStr"/>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -14897,14 +13799,8 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J373" t="inlineStr"/>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -14936,14 +13832,8 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J374" t="inlineStr"/>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -14975,14 +13865,8 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J375" t="inlineStr"/>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -15014,14 +13898,8 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J376" t="inlineStr"/>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -15053,14 +13931,8 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J377" t="inlineStr"/>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -15092,14 +13964,8 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J378" t="inlineStr"/>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -15131,14 +13997,8 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J379" t="inlineStr"/>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -15167,17 +14027,11 @@
         <v>253584.3507731036</v>
       </c>
       <c r="H380" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J380" t="inlineStr"/>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -15206,17 +14060,11 @@
         <v>253619.3507731036</v>
       </c>
       <c r="H381" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J381" t="inlineStr"/>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -15245,17 +14093,11 @@
         <v>253628.8176731036</v>
       </c>
       <c r="H382" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J382" t="inlineStr"/>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -15284,17 +14126,11 @@
         <v>253628.8176731036</v>
       </c>
       <c r="H383" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J383" t="inlineStr"/>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -15323,17 +14159,11 @@
         <v>250241.8679731036</v>
       </c>
       <c r="H384" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J384" t="inlineStr"/>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -15365,14 +14195,8 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J385" t="inlineStr"/>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -15404,14 +14228,8 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J386" t="inlineStr"/>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -15443,14 +14261,8 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J387" t="inlineStr"/>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -15479,17 +14291,11 @@
         <v>250245.6679731036</v>
       </c>
       <c r="H388" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J388" t="inlineStr"/>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -15521,14 +14327,8 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J389" t="inlineStr"/>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -15560,14 +14360,8 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J390" t="inlineStr"/>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -15596,17 +14390,11 @@
         <v>249963.4372731036</v>
       </c>
       <c r="H391" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J391" t="inlineStr"/>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -15635,17 +14423,11 @@
         <v>249963.4372731036</v>
       </c>
       <c r="H392" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J392" t="inlineStr"/>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -15677,14 +14459,8 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J393" t="inlineStr"/>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -15716,14 +14492,8 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J394" t="inlineStr"/>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -15752,17 +14522,11 @@
         <v>247962.3011731036</v>
       </c>
       <c r="H395" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J395" t="inlineStr"/>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -15794,14 +14558,8 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J396" t="inlineStr"/>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -15833,14 +14591,8 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J397" t="inlineStr"/>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -15872,14 +14624,8 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J398" t="inlineStr"/>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -15911,14 +14657,8 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J399" t="inlineStr"/>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -15950,14 +14690,8 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J400" t="inlineStr"/>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -15989,14 +14723,8 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J401" t="inlineStr"/>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -16025,19 +14753,13 @@
         <v>248567.9075236837</v>
       </c>
       <c r="H402" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="n">
-        <v>3073</v>
-      </c>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J402" t="inlineStr"/>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
-        <v>1.00378620240807</v>
+        <v>1</v>
       </c>
       <c r="M402" t="inlineStr"/>
     </row>
@@ -16064,7 +14786,7 @@
         <v>248567.9075236837</v>
       </c>
       <c r="H403" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -16097,7 +14819,7 @@
         <v>248527.3677236837</v>
       </c>
       <c r="H404" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -16130,7 +14852,7 @@
         <v>248486.8279236837</v>
       </c>
       <c r="H405" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -16163,7 +14885,7 @@
         <v>248594.2367236837</v>
       </c>
       <c r="H406" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -16196,7 +14918,7 @@
         <v>248399.2464236837</v>
       </c>
       <c r="H407" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -16262,7 +14984,7 @@
         <v>248292.6617236837</v>
       </c>
       <c r="H409" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -16295,7 +15017,7 @@
         <v>248292.6617236837</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -16328,7 +15050,7 @@
         <v>248292.6617236837</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -16361,7 +15083,7 @@
         <v>248030.6667236837</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -16394,7 +15116,7 @@
         <v>248030.6667236837</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -16427,7 +15149,7 @@
         <v>248030.6667236837</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -16460,7 +15182,7 @@
         <v>248030.6667236837</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -16493,7 +15215,7 @@
         <v>248030.6667236837</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -16526,7 +15248,7 @@
         <v>248030.6667236837</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -16559,7 +15281,7 @@
         <v>248871.3261236837</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -16592,7 +15314,7 @@
         <v>248503.5375236837</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -16625,7 +15347,7 @@
         <v>248503.5375236837</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -16658,7 +15380,7 @@
         <v>248600.1956236837</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -16691,7 +15413,7 @@
         <v>248600.1956236837</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -16724,7 +15446,7 @@
         <v>248686.6470236837</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -17186,7 +15908,7 @@
         <v>244532.1597236838</v>
       </c>
       <c r="H437" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -17219,7 +15941,7 @@
         <v>245182.1597236838</v>
       </c>
       <c r="H438" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -17252,7 +15974,7 @@
         <v>245105.3685236838</v>
       </c>
       <c r="H439" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -17285,7 +16007,7 @@
         <v>246405.3685236838</v>
       </c>
       <c r="H440" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -17318,7 +16040,7 @@
         <v>246371.6749236838</v>
       </c>
       <c r="H441" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -17351,7 +16073,7 @@
         <v>246159.3573236838</v>
       </c>
       <c r="H442" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -17384,7 +16106,7 @@
         <v>246159.5573236838</v>
       </c>
       <c r="H443" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -17417,7 +16139,7 @@
         <v>246059.5573236838</v>
       </c>
       <c r="H444" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -17450,7 +16172,7 @@
         <v>246059.5573236838</v>
       </c>
       <c r="H445" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -17483,7 +16205,7 @@
         <v>246614.3024236838</v>
       </c>
       <c r="H446" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -17516,7 +16238,7 @@
         <v>246610.8029236838</v>
       </c>
       <c r="H447" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -17549,7 +16271,7 @@
         <v>246293.2668236838</v>
       </c>
       <c r="H448" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -17582,7 +16304,7 @@
         <v>246293.2668236838</v>
       </c>
       <c r="H449" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -17615,7 +16337,7 @@
         <v>246375.302848129</v>
       </c>
       <c r="H450" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -17648,7 +16370,7 @@
         <v>246261.980448129</v>
       </c>
       <c r="H451" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -17681,7 +16403,7 @@
         <v>244097.164048129</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -17714,7 +16436,7 @@
         <v>244098.312048129</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -17747,7 +16469,7 @@
         <v>244071.157148129</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -17780,7 +16502,7 @@
         <v>244071.157148129</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -17813,7 +16535,7 @@
         <v>243641.157148129</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -17846,7 +16568,7 @@
         <v>243641.157148129</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -17879,7 +16601,7 @@
         <v>243491.308648129</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -17912,7 +16634,7 @@
         <v>241991.308648129</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -17945,7 +16667,7 @@
         <v>241991.308648129</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -17978,7 +16700,7 @@
         <v>242015.115048129</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -18011,7 +16733,7 @@
         <v>241897.589448129</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -18044,7 +16766,7 @@
         <v>241897.589448129</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -18077,7 +16799,7 @@
         <v>241897.589448129</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -18803,7 +17525,7 @@
         <v>242761.956648129</v>
       </c>
       <c r="H486" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -18836,7 +17558,7 @@
         <v>245631.944748129</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -18869,7 +17591,7 @@
         <v>244007.738748129</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -18902,7 +17624,7 @@
         <v>243982.548148129</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -18935,7 +17657,7 @@
         <v>243982.548148129</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -18968,7 +17690,7 @@
         <v>243982.548148129</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -18979,6 +17701,6 @@
       <c r="M491" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-22 BackTest LINK.xlsx
+++ b/BackTest/2020-01-22 BackTest LINK.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-6883.063106557378</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-7398.063106557378</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-7387.025306557378</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-7387.025306557378</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-7284.797506557378</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-7284.797506557378</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-7226.199306557378</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-7208.500506557378</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-11026.64570655738</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-14669.12320655738</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-14669.12320655738</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-14864.69980655738</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-13949.88340655738</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-13532.69130655738</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-12329.87430655738</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-12333.02800655738</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-12333.02800655738</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-12982.03980655738</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,17 +1045,11 @@
         <v>-13157.24086252874</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>3076</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1084,17 +1078,11 @@
         <v>-13157.57866252874</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>3073</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1123,17 +1111,11 @@
         <v>-14067.87606252874</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>3060</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1162,17 +1144,11 @@
         <v>-14067.87606252874</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>3055</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1201,17 +1177,11 @@
         <v>-14499.21096252874</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>3055</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1240,17 +1210,11 @@
         <v>-14654.95826252874</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>3045</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1279,17 +1243,11 @@
         <v>-16017.33396252874</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>3042</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1318,17 +1276,11 @@
         <v>-15079.42546252874</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>3040</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1357,17 +1309,11 @@
         <v>-15079.42546252874</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>3050</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1396,17 +1342,11 @@
         <v>-15008.44726252875</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>3050</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1435,17 +1375,11 @@
         <v>-15008.44726252875</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>3067</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1474,17 +1408,11 @@
         <v>-14904.88536252874</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>3067</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1513,17 +1441,11 @@
         <v>-18069.88536252874</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>3074</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1552,17 +1474,11 @@
         <v>-18069.88536252874</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>3071</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1591,17 +1507,11 @@
         <v>-18069.88536252874</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>3071</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1630,17 +1540,11 @@
         <v>-18069.88536252874</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>3071</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1669,17 +1573,11 @@
         <v>-18069.88536252874</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>3071</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1708,17 +1606,11 @@
         <v>-17869.88536252874</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>3071</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1747,17 +1639,11 @@
         <v>-14963.15546252874</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>3083</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1786,17 +1672,11 @@
         <v>-14945.53426252874</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>3094</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1829,11 +1709,7 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1866,11 +1742,7 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1903,11 +1775,7 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1940,11 +1808,7 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1977,11 +1841,7 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2014,11 +1874,7 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2051,11 +1907,7 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2088,11 +1940,7 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2125,11 +1973,7 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2162,11 +2006,7 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2199,11 +2039,7 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2236,11 +2072,7 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2273,11 +2105,7 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2306,17 +2134,11 @@
         <v>-14628.51632704487</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>3086</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2345,17 +2167,11 @@
         <v>-15407.86272704487</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>3100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2384,17 +2200,11 @@
         <v>-13175.45232704487</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>3078</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2423,17 +2233,11 @@
         <v>-12977.71332704487</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>3086</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2462,17 +2266,11 @@
         <v>-12977.71332704487</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>3094</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2501,17 +2299,11 @@
         <v>-13131.63482704487</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>3094</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2540,17 +2332,11 @@
         <v>-13131.63482704487</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>3084</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2579,17 +2365,11 @@
         <v>-16826.25032704487</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>3084</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2618,17 +2398,11 @@
         <v>-16902.33022704487</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>3065</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2657,17 +2431,11 @@
         <v>-18279.71312704487</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>3062</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2696,17 +2464,11 @@
         <v>-17628.01312704487</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>3046</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2735,17 +2497,11 @@
         <v>-17628.01312704487</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>3058</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2774,17 +2530,11 @@
         <v>-17642.86762704487</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>3058</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2813,17 +2563,11 @@
         <v>-17642.86762704487</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>3047</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2852,17 +2596,11 @@
         <v>-18296.37802704487</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>3047</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2891,17 +2629,11 @@
         <v>-18292.85742704487</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>3045</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2930,17 +2662,11 @@
         <v>-18296.12326636558</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>3075</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2973,11 +2699,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3010,11 +2732,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3043,17 +2761,11 @@
         <v>-19560.73576636558</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>3053</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3082,17 +2794,11 @@
         <v>-19564.25636636558</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>3053</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3121,17 +2827,11 @@
         <v>-19533.35676636558</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>3047</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3160,17 +2860,11 @@
         <v>-19533.35676636558</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>3053</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3199,17 +2893,11 @@
         <v>-19533.35676636558</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>3053</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3238,17 +2926,11 @@
         <v>-19896.24116636558</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>3053</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3277,17 +2959,11 @@
         <v>-20026.27986757909</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>3052</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3316,17 +2992,11 @@
         <v>-20070.57716757909</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>3049</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3355,17 +3025,11 @@
         <v>-20070.57716757909</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>3041</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3394,17 +3058,11 @@
         <v>-20070.57716757909</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>3041</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3433,17 +3091,11 @@
         <v>-20000.07716757909</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>3041</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3472,17 +3124,11 @@
         <v>-12826.15635441171</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>3049</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3511,17 +3157,11 @@
         <v>-12826.15635441171</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>3066</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3554,11 +3194,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3591,11 +3227,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3628,11 +3260,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3665,11 +3293,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3702,11 +3326,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3739,11 +3359,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3776,11 +3392,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3813,11 +3425,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3850,11 +3458,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3887,11 +3491,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3924,11 +3524,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3961,11 +3557,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3998,11 +3590,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4035,11 +3623,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4072,11 +3656,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4109,11 +3689,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4146,11 +3722,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4183,11 +3755,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4220,11 +3788,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4257,11 +3821,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4294,11 +3854,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4331,11 +3887,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4368,11 +3920,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4405,11 +3953,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4442,11 +3986,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4479,11 +4019,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4516,11 +4052,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4553,11 +4085,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4590,11 +4118,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4627,11 +4151,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4664,11 +4184,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4701,11 +4217,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4738,11 +4250,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4775,11 +4283,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4812,11 +4316,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4849,11 +4349,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4886,11 +4382,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4923,11 +4415,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4960,11 +4448,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4997,11 +4481,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5034,11 +4514,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5071,11 +4547,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5108,11 +4580,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5145,11 +4613,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5182,11 +4646,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5219,11 +4679,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5252,17 +4708,11 @@
         <v>-9333.320595531088</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>3075</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5295,11 +4745,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5332,11 +4778,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5369,11 +4811,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5406,11 +4844,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5443,11 +4877,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5480,11 +4910,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5517,11 +4943,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5554,11 +4976,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5591,11 +5009,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5628,11 +5042,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5665,11 +5075,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5702,11 +5108,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5735,17 +5137,11 @@
         <v>-11714.48751905024</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>3073</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5778,11 +5174,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5815,11 +5207,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5852,11 +5240,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5889,11 +5273,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5926,11 +5306,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5963,11 +5339,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6000,11 +5372,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6037,11 +5405,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6074,11 +5438,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6111,11 +5471,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6148,11 +5504,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6185,11 +5537,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6222,11 +5570,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6259,11 +5603,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6296,11 +5636,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6333,11 +5669,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6370,11 +5702,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6403,17 +5731,11 @@
         <v>-12667.71251905024</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
-      </c>
-      <c r="I162" t="n">
-        <v>3061</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6442,17 +5764,11 @@
         <v>-12927.71241905024</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
-        <v>3071</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6481,17 +5797,11 @@
         <v>-12927.71241905024</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="n">
-        <v>3059</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6520,17 +5830,11 @@
         <v>-12927.71241905024</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I165" t="n">
-        <v>3059</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6563,11 +5867,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6596,17 +5896,11 @@
         <v>-12983.71241905024</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>3057</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6635,17 +5929,11 @@
         <v>-12619.38721905024</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
-      </c>
-      <c r="I168" t="n">
-        <v>3057</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6678,11 +5966,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6715,11 +5999,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6752,11 +6032,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6785,15 +6061,15 @@
         <v>-12432.63661905024</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>3060</v>
+      </c>
+      <c r="J172" t="n">
+        <v>3060</v>
+      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6822,13 +6098,17 @@
         <v>-12119.86461905024</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>3072</v>
+      </c>
+      <c r="J173" t="n">
+        <v>3060</v>
+      </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L173" t="n">
@@ -6862,10 +6142,12 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>3060</v>
+      </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L174" t="n">
@@ -6896,15 +6178,15 @@
         <v>-12152.78481905024</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>3072</v>
+      </c>
+      <c r="J175" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6933,13 +6215,17 @@
         <v>-12152.78481905024</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>3072</v>
+      </c>
+      <c r="J176" t="n">
+        <v>3072</v>
+      </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L176" t="n">
@@ -6970,13 +6256,17 @@
         <v>-11329.29731905024</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>3072</v>
+      </c>
+      <c r="J177" t="n">
+        <v>3072</v>
+      </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L177" t="n">
@@ -7010,7 +6300,9 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>3072</v>
+      </c>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7047,7 +6339,9 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>3072</v>
+      </c>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7084,7 +6378,9 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>3072</v>
+      </c>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7121,7 +6417,9 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>3072</v>
+      </c>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7158,7 +6456,9 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>3072</v>
+      </c>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7195,7 +6495,9 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>3072</v>
+      </c>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7232,7 +6534,9 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>3072</v>
+      </c>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7269,7 +6573,9 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>3072</v>
+      </c>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7306,7 +6612,9 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>3072</v>
+      </c>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7343,7 +6651,9 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>3072</v>
+      </c>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7380,7 +6690,9 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>3072</v>
+      </c>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7417,7 +6729,9 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>3072</v>
+      </c>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7454,7 +6768,9 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>3072</v>
+      </c>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7491,7 +6807,9 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>3072</v>
+      </c>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7528,7 +6846,9 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>3072</v>
+      </c>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7565,7 +6885,9 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>3072</v>
+      </c>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7602,7 +6924,9 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>3072</v>
+      </c>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7639,7 +6963,9 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>3072</v>
+      </c>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7676,7 +7002,9 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>3072</v>
+      </c>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7713,7 +7041,9 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>3072</v>
+      </c>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7750,7 +7080,9 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>3072</v>
+      </c>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7787,7 +7119,9 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>3072</v>
+      </c>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7824,7 +7158,9 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>3072</v>
+      </c>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7861,7 +7197,9 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>3072</v>
+      </c>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7898,7 +7236,9 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>3072</v>
+      </c>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7935,7 +7275,9 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>3072</v>
+      </c>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7972,7 +7314,9 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>3072</v>
+      </c>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8009,7 +7353,9 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>3072</v>
+      </c>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8046,7 +7392,9 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>3072</v>
+      </c>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8083,7 +7431,9 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>3072</v>
+      </c>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8120,7 +7470,9 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>3072</v>
+      </c>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8157,7 +7509,9 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>3072</v>
+      </c>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8194,7 +7548,9 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>3072</v>
+      </c>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8231,7 +7587,9 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>3072</v>
+      </c>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8268,7 +7626,9 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>3072</v>
+      </c>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8305,7 +7665,9 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>3072</v>
+      </c>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8342,7 +7704,9 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>3072</v>
+      </c>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8379,7 +7743,9 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>3072</v>
+      </c>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8416,7 +7782,9 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>3072</v>
+      </c>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8453,7 +7821,9 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>3072</v>
+      </c>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8490,7 +7860,9 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>3072</v>
+      </c>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8527,7 +7899,9 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>3072</v>
+      </c>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8564,7 +7938,9 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>3072</v>
+      </c>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8601,7 +7977,9 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>3072</v>
+      </c>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8638,7 +8016,9 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>3072</v>
+      </c>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8675,7 +8055,9 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>3072</v>
+      </c>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8712,7 +8094,9 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>3072</v>
+      </c>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8749,7 +8133,9 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>3072</v>
+      </c>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8786,7 +8172,9 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>3072</v>
+      </c>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8823,7 +8211,9 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>3072</v>
+      </c>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8860,7 +8250,9 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>3072</v>
+      </c>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8897,7 +8289,9 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>3072</v>
+      </c>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8934,7 +8328,9 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>3072</v>
+      </c>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8971,7 +8367,9 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>3072</v>
+      </c>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9008,7 +8406,9 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>3072</v>
+      </c>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9045,7 +8445,9 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>3072</v>
+      </c>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9082,7 +8484,9 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>3072</v>
+      </c>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9119,7 +8523,9 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>3072</v>
+      </c>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9156,7 +8562,9 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>3072</v>
+      </c>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9193,7 +8601,9 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>3072</v>
+      </c>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9230,7 +8640,9 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>3072</v>
+      </c>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9267,7 +8679,9 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>3072</v>
+      </c>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9304,7 +8718,9 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>3072</v>
+      </c>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9341,7 +8757,9 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>3072</v>
+      </c>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9378,7 +8796,9 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>3072</v>
+      </c>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9415,7 +8835,9 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>3072</v>
+      </c>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9452,7 +8874,9 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>3072</v>
+      </c>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9489,7 +8913,9 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>3072</v>
+      </c>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9526,7 +8952,9 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>3072</v>
+      </c>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9563,7 +8991,9 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>3072</v>
+      </c>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9600,7 +9030,9 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>3072</v>
+      </c>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9637,7 +9069,9 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>3072</v>
+      </c>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9674,7 +9108,9 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>3072</v>
+      </c>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9711,7 +9147,9 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>3072</v>
+      </c>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9748,7 +9186,9 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>3072</v>
+      </c>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9785,7 +9225,9 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>3072</v>
+      </c>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9822,7 +9264,9 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>3072</v>
+      </c>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9859,7 +9303,9 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>3072</v>
+      </c>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9896,7 +9342,9 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>3072</v>
+      </c>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9933,7 +9381,9 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>3072</v>
+      </c>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9970,7 +9420,9 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>3072</v>
+      </c>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10007,7 +9459,9 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>3072</v>
+      </c>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10044,7 +9498,9 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>3072</v>
+      </c>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10081,7 +9537,9 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>3072</v>
+      </c>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10118,7 +9576,9 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>3072</v>
+      </c>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10155,7 +9615,9 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>3072</v>
+      </c>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10192,7 +9654,9 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>3072</v>
+      </c>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10229,7 +9693,9 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>3072</v>
+      </c>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10263,16 +9729,20 @@
         <v>253648.9658426472</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>3072</v>
+      </c>
       <c r="K266" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L266" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
       <c r="M266" t="inlineStr"/>
     </row>
     <row r="267">
@@ -10298,11 +9768,17 @@
         <v>247639.0406426472</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10331,11 +9807,17 @@
         <v>235889.0532426471</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10364,11 +9846,17 @@
         <v>236394.0008426472</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10397,11 +9885,17 @@
         <v>236314.8852426472</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10430,11 +9924,17 @@
         <v>236341.4802426472</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10463,11 +9963,17 @@
         <v>236341.4802426472</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10496,11 +10002,17 @@
         <v>238618.5923426472</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10529,11 +10041,17 @@
         <v>238248.0576426472</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10562,11 +10080,17 @@
         <v>240593.9314426472</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10595,11 +10119,17 @@
         <v>246593.9314426472</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10628,11 +10158,17 @@
         <v>246141.7884426472</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10661,11 +10197,17 @@
         <v>246141.7884426472</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10694,11 +10236,17 @@
         <v>245240.3799426472</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10727,11 +10275,17 @@
         <v>245737.5256426472</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10760,11 +10314,17 @@
         <v>245935.4301426472</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10793,11 +10353,17 @@
         <v>245788.5480426472</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10826,11 +10392,17 @@
         <v>245788.5480426472</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10859,11 +10431,17 @@
         <v>245298.0304426472</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10892,11 +10470,17 @@
         <v>245266.4133426472</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10925,11 +10509,17 @@
         <v>245266.4133426472</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10958,11 +10548,17 @@
         <v>245752.604790395</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10991,11 +10587,17 @@
         <v>245752.604790395</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11024,11 +10626,17 @@
         <v>246042.081090395</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11057,11 +10665,17 @@
         <v>246027.481090395</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11090,11 +10704,17 @@
         <v>246011.391890395</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11126,8 +10746,14 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11156,11 +10782,17 @@
         <v>246045.139490395</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11192,8 +10824,14 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11225,8 +10863,14 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11258,8 +10902,14 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11288,11 +10938,17 @@
         <v>245949.537590395</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11324,8 +10980,14 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11357,8 +11019,14 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11390,8 +11058,14 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11423,8 +11097,14 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11453,11 +11133,17 @@
         <v>238572.599267234</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11486,11 +11172,17 @@
         <v>238272.599267234</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11519,11 +11211,17 @@
         <v>242517.711267234</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11552,11 +11250,17 @@
         <v>242821.283067234</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11585,11 +11289,17 @@
         <v>250101.677267234</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11618,11 +11328,17 @@
         <v>250101.677267234</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11651,11 +11367,17 @@
         <v>250001.677267234</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11684,11 +11406,17 @@
         <v>249427.6774672341</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11717,11 +11445,17 @@
         <v>249427.6774672341</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11750,11 +11484,17 @@
         <v>249427.6774672341</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11783,11 +11523,17 @@
         <v>249427.6774672341</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11816,11 +11562,17 @@
         <v>249427.6774672341</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11849,11 +11601,17 @@
         <v>249427.6774672341</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11882,11 +11640,17 @@
         <v>249427.6774672341</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11915,11 +11679,17 @@
         <v>249427.6774672341</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11948,11 +11718,17 @@
         <v>258903.8536028452</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11981,11 +11757,17 @@
         <v>258458.9536028452</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -12014,11 +11796,17 @@
         <v>258437.6110028452</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -12050,8 +11838,14 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -12083,8 +11877,14 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -12116,8 +11916,14 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -12149,8 +11955,14 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -12182,8 +11994,14 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -12215,8 +12033,14 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -12248,8 +12072,14 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -12281,8 +12111,14 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -12314,8 +12150,14 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12347,8 +12189,14 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12380,8 +12228,14 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12413,8 +12267,14 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12446,8 +12306,14 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12479,8 +12345,14 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12512,8 +12384,14 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12545,8 +12423,14 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12578,8 +12462,14 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12611,8 +12501,14 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12644,8 +12540,14 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12677,8 +12579,14 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12710,8 +12618,14 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12743,8 +12657,14 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12776,8 +12696,14 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12809,8 +12735,14 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12842,8 +12774,14 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12875,8 +12813,14 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12908,8 +12852,14 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12941,8 +12891,14 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12974,8 +12930,14 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -13007,8 +12969,14 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -13040,8 +13008,14 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -13073,8 +13047,14 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -13103,11 +13083,17 @@
         <v>258285.7935254258</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -13136,11 +13122,17 @@
         <v>258123.5611254258</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -13169,11 +13161,17 @@
         <v>258402.2617254258</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -13202,11 +13200,17 @@
         <v>258402.2617254258</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -13235,11 +13239,17 @@
         <v>258546.6812254258</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -13268,11 +13278,17 @@
         <v>258546.6812254258</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -13301,11 +13317,17 @@
         <v>258546.6812254258</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13334,11 +13356,17 @@
         <v>256479.3014254258</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13367,11 +13395,17 @@
         <v>256511.5412254258</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13403,8 +13437,14 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13433,11 +13473,17 @@
         <v>256389.2880254258</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13469,8 +13515,14 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13499,11 +13551,17 @@
         <v>256211.0035254258</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13532,11 +13590,17 @@
         <v>255710.6915254258</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13565,11 +13629,17 @@
         <v>255691.9923254258</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13598,11 +13668,17 @@
         <v>255365.8722254258</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13631,11 +13707,17 @@
         <v>255287.9841254258</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13664,11 +13746,17 @@
         <v>255287.9841254258</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13697,11 +13785,17 @@
         <v>255172.7635254258</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13730,11 +13824,17 @@
         <v>255162.7635254258</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13763,11 +13863,17 @@
         <v>254862.7635254258</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13799,8 +13905,14 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13832,8 +13944,14 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13865,8 +13983,14 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13898,8 +14022,14 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13931,8 +14061,14 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13964,8 +14100,14 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13997,8 +14139,14 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -14030,8 +14178,14 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -14063,8 +14217,14 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -14096,8 +14256,14 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -14129,8 +14295,14 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -14162,8 +14334,14 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -14195,8 +14373,14 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -14228,8 +14412,14 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -14261,8 +14451,14 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -14294,8 +14490,14 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14327,8 +14529,14 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14360,8 +14568,14 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14393,8 +14607,14 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14426,8 +14646,14 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14459,8 +14685,14 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14492,8 +14724,14 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14525,8 +14763,14 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14558,8 +14802,14 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14591,8 +14841,14 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14624,8 +14880,14 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14657,8 +14919,14 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14690,8 +14958,14 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14723,8 +14997,14 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14756,8 +15036,14 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14789,8 +15075,14 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14822,8 +15114,14 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14855,8 +15153,14 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14888,8 +15192,14 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14921,8 +15231,14 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14954,8 +15270,14 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14987,8 +15309,14 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -15017,11 +15345,17 @@
         <v>248292.6617236837</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -15050,11 +15384,17 @@
         <v>248292.6617236837</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -15083,11 +15423,17 @@
         <v>248030.6667236837</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -15116,11 +15462,17 @@
         <v>248030.6667236837</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -15149,11 +15501,17 @@
         <v>248030.6667236837</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -15182,11 +15540,17 @@
         <v>248030.6667236837</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -15215,11 +15579,17 @@
         <v>248030.6667236837</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -15248,11 +15618,17 @@
         <v>248030.6667236837</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -15281,11 +15657,17 @@
         <v>248871.3261236837</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -15314,11 +15696,17 @@
         <v>248503.5375236837</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -15347,11 +15735,17 @@
         <v>248503.5375236837</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -15380,11 +15774,17 @@
         <v>248600.1956236837</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -15413,11 +15813,17 @@
         <v>248600.1956236837</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -15446,11 +15852,17 @@
         <v>248686.6470236837</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -15482,8 +15894,14 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -15515,8 +15933,14 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -15548,8 +15972,14 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -15581,8 +16011,14 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -15614,8 +16050,14 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -15647,8 +16089,14 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -15680,8 +16128,14 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -15713,8 +16167,14 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15746,8 +16206,14 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15779,8 +16245,14 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15812,8 +16284,14 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15845,8 +16323,14 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15878,8 +16362,14 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15911,8 +16401,14 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15944,8 +16440,14 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15977,8 +16479,14 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -16010,8 +16518,14 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -16043,8 +16557,14 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -16076,8 +16596,14 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -16106,11 +16632,17 @@
         <v>246159.5573236838</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -16139,11 +16671,17 @@
         <v>246059.5573236838</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -16172,11 +16710,17 @@
         <v>246059.5573236838</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -16205,11 +16749,17 @@
         <v>246614.3024236838</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -16238,11 +16788,17 @@
         <v>246610.8029236838</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -16271,11 +16827,17 @@
         <v>246293.2668236838</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -16304,11 +16866,17 @@
         <v>246293.2668236838</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -16337,11 +16905,17 @@
         <v>246375.302848129</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -16370,11 +16944,17 @@
         <v>246261.980448129</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -16403,11 +16983,17 @@
         <v>244097.164048129</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -16436,11 +17022,17 @@
         <v>244098.312048129</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="J453" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -16469,11 +17061,17 @@
         <v>244071.157148129</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -16502,11 +17100,17 @@
         <v>244071.157148129</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -16535,11 +17139,17 @@
         <v>243641.157148129</v>
       </c>
       <c r="H456" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -16568,11 +17178,17 @@
         <v>243641.157148129</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -16601,11 +17217,17 @@
         <v>243491.308648129</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="J458" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -16634,11 +17256,17 @@
         <v>241991.308648129</v>
       </c>
       <c r="H459" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="J459" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -16667,11 +17295,17 @@
         <v>241991.308648129</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="J460" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -16700,11 +17334,17 @@
         <v>242015.115048129</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="J461" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -16733,11 +17373,17 @@
         <v>241897.589448129</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="J462" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -16766,11 +17412,17 @@
         <v>241897.589448129</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="J463" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -16799,11 +17451,17 @@
         <v>241897.589448129</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="J464" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -16835,8 +17493,14 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="J465" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -16868,8 +17532,14 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="J466" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -16901,8 +17571,14 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="J467" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16934,8 +17610,14 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="J468" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16967,8 +17649,14 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="J469" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -17000,8 +17688,14 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="J470" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -17033,8 +17727,14 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -17066,8 +17766,14 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -17099,8 +17805,14 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="J473" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -17132,8 +17844,14 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="J474" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -17165,8 +17883,14 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -17198,8 +17922,14 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="J476" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -17231,8 +17961,14 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -17264,8 +18000,14 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="J478" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -17297,8 +18039,14 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="J479" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -17330,8 +18078,14 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="J480" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -17363,8 +18117,14 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="J481" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -17396,8 +18156,14 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="J482" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -17429,8 +18195,14 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="J483" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -17462,8 +18234,14 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="J484" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -17495,8 +18273,14 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="J485" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -17525,11 +18309,17 @@
         <v>242761.956648129</v>
       </c>
       <c r="H486" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="J486" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -17558,11 +18348,17 @@
         <v>245631.944748129</v>
       </c>
       <c r="H487" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="J487" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -17591,11 +18387,17 @@
         <v>244007.738748129</v>
       </c>
       <c r="H488" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="J488" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -17624,11 +18426,17 @@
         <v>243982.548148129</v>
       </c>
       <c r="H489" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="J489" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -17657,11 +18465,17 @@
         <v>243982.548148129</v>
       </c>
       <c r="H490" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="J490" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -17690,17 +18504,23 @@
         <v>243982.548148129</v>
       </c>
       <c r="H491" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="J491" t="n">
+        <v>3072</v>
+      </c>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
       <c r="M491" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-22 BackTest LINK.xlsx
+++ b/BackTest/2020-01-22 BackTest LINK.xlsx
@@ -451,7 +451,7 @@
         <v>-6883.063106557378</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>-7398.063106557378</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3053</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3053</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>-7387.025306557378</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3041</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3053</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,19 @@
         <v>-7387.025306557378</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3050</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3053</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,10 +603,14 @@
         <v>-7284.797506557378</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3050</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3050</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -616,11 +640,19 @@
         <v>-7284.797506557378</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3068</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +681,19 @@
         <v>-7226.199306557378</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3068</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,11 +722,19 @@
         <v>-7208.500506557378</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3072</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -715,11 +763,19 @@
         <v>-11026.64570655738</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3079</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +804,19 @@
         <v>-14669.12320655738</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3078</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,11 +845,19 @@
         <v>-14669.12320655738</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>3076</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -814,11 +886,19 @@
         <v>-14864.69980655738</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>3076</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,11 +927,19 @@
         <v>-13949.88340655738</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>3056</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -880,11 +968,19 @@
         <v>-13532.69130655738</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>3073</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -913,11 +1009,19 @@
         <v>-12329.87430655738</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>3074</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -946,11 +1050,17 @@
         <v>-12333.02800655738</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -979,11 +1089,17 @@
         <v>-12333.02800655738</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1012,11 +1128,19 @@
         <v>-12982.03980655738</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>3077</v>
+      </c>
+      <c r="J19" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1045,11 +1169,17 @@
         <v>-13157.24086252874</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1078,11 +1208,19 @@
         <v>-13157.57866252874</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>3073</v>
+      </c>
+      <c r="J21" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1111,11 +1249,19 @@
         <v>-14067.87606252874</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>3060</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1144,11 +1290,19 @@
         <v>-14067.87606252874</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>3055</v>
+      </c>
+      <c r="J23" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1177,11 +1331,19 @@
         <v>-14499.21096252874</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>3055</v>
+      </c>
+      <c r="J24" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1210,11 +1372,19 @@
         <v>-14654.95826252874</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>3045</v>
+      </c>
+      <c r="J25" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1243,11 +1413,19 @@
         <v>-16017.33396252874</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>3042</v>
+      </c>
+      <c r="J26" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1276,11 +1454,19 @@
         <v>-15079.42546252874</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>3040</v>
+      </c>
+      <c r="J27" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1309,11 +1495,19 @@
         <v>-15079.42546252874</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>3050</v>
+      </c>
+      <c r="J28" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1342,11 +1536,19 @@
         <v>-15008.44726252875</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>3050</v>
+      </c>
+      <c r="J29" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1375,11 +1577,19 @@
         <v>-15008.44726252875</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>3067</v>
+      </c>
+      <c r="J30" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1411,8 +1621,14 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1444,8 +1660,14 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1477,8 +1699,14 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1510,8 +1738,14 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1543,8 +1777,14 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1576,8 +1816,14 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1609,8 +1855,14 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1642,8 +1894,14 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1675,8 +1933,14 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1708,8 +1972,14 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1741,8 +2011,14 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1774,8 +2050,14 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1807,8 +2089,14 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1840,8 +2128,14 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1873,8 +2167,14 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1906,8 +2206,14 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1939,8 +2245,14 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1972,8 +2284,14 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2005,8 +2323,14 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2038,8 +2362,14 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2071,8 +2401,14 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2104,8 +2440,14 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2137,8 +2479,14 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2170,8 +2518,14 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2203,8 +2557,14 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2236,8 +2596,14 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2269,8 +2635,14 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2302,8 +2674,14 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2335,8 +2713,14 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2368,8 +2752,14 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2401,8 +2791,14 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2434,8 +2830,14 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2467,8 +2869,14 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2500,8 +2908,14 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2533,8 +2947,14 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2566,8 +2986,14 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2599,8 +3025,14 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2632,8 +3064,14 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2665,8 +3103,14 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2698,8 +3142,14 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2731,8 +3181,14 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2764,8 +3220,14 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2797,8 +3259,14 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2830,8 +3298,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2863,8 +3337,14 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2896,8 +3376,14 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2929,8 +3415,14 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2962,8 +3454,14 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2995,8 +3493,14 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3028,8 +3532,14 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3061,8 +3571,14 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3094,8 +3610,14 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3127,8 +3649,14 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3160,8 +3688,14 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3193,8 +3727,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3226,8 +3766,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3259,8 +3805,14 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3292,8 +3844,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3325,8 +3883,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3358,8 +3922,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3391,8 +3961,14 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3424,8 +4000,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3457,8 +4039,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3490,8 +4078,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3523,8 +4117,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3556,8 +4156,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3589,8 +4195,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3622,8 +4234,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3655,8 +4273,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3688,8 +4312,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3721,8 +4351,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3754,8 +4390,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3787,8 +4429,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3820,8 +4468,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3853,8 +4507,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3886,8 +4546,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3919,8 +4585,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3952,8 +4624,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -3985,8 +4663,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4018,8 +4702,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4051,8 +4741,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4084,8 +4780,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4117,8 +4819,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4150,8 +4858,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4183,8 +4897,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4216,8 +4936,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4249,8 +4975,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4282,8 +5014,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4315,8 +5053,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4348,8 +5092,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4381,8 +5131,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4414,8 +5170,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4447,8 +5209,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4480,8 +5248,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4513,8 +5287,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4546,8 +5326,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4579,8 +5365,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4612,8 +5404,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4645,8 +5443,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4678,8 +5482,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4711,8 +5521,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4744,8 +5560,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4777,8 +5599,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4810,8 +5638,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4843,8 +5677,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4876,8 +5716,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4909,8 +5755,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4942,8 +5794,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -4975,8 +5833,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5008,8 +5872,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5041,8 +5911,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5074,8 +5950,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5107,8 +5989,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5140,8 +6028,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5173,8 +6067,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5206,8 +6106,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5239,8 +6145,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5272,8 +6184,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5305,8 +6223,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5338,8 +6262,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5371,8 +6301,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5404,8 +6340,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5437,8 +6379,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5470,8 +6418,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5503,8 +6457,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5536,8 +6496,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5569,8 +6535,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5602,8 +6574,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5635,8 +6613,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5668,8 +6652,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5701,8 +6691,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5734,8 +6730,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5767,8 +6769,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5800,8 +6808,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5833,8 +6847,14 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5866,8 +6886,14 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5899,8 +6925,14 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -5932,8 +6964,14 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -5965,8 +7003,14 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -5998,8 +7042,14 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6031,8 +7081,14 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6061,15 +7117,17 @@
         <v>-12432.63661905024</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>3060</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="n">
-        <v>3060</v>
-      </c>
-      <c r="K172" t="inlineStr"/>
+        <v>3050</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6098,17 +7156,15 @@
         <v>-12119.86461905024</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>3072</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="n">
-        <v>3060</v>
+        <v>3050</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L173" t="n">
@@ -6143,11 +7199,11 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="n">
-        <v>3060</v>
+        <v>3050</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L174" t="n">
@@ -6178,15 +7234,17 @@
         <v>-12152.78481905024</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>3072</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K175" t="inlineStr"/>
+        <v>3050</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6215,17 +7273,15 @@
         <v>-12152.78481905024</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>3072</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="n">
-        <v>3072</v>
+        <v>3050</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L176" t="n">
@@ -6256,17 +7312,15 @@
         <v>-11329.29731905024</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>3072</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="n">
-        <v>3072</v>
+        <v>3050</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L177" t="n">
@@ -6301,7 +7355,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="n">
-        <v>3072</v>
+        <v>3050</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -6340,7 +7394,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="n">
-        <v>3072</v>
+        <v>3050</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -6379,7 +7433,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="n">
-        <v>3072</v>
+        <v>3050</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
@@ -6418,7 +7472,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="n">
-        <v>3072</v>
+        <v>3050</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
@@ -6457,7 +7511,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="n">
-        <v>3072</v>
+        <v>3050</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
@@ -6496,7 +7550,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="n">
-        <v>3072</v>
+        <v>3050</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
@@ -6535,7 +7589,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="n">
-        <v>3072</v>
+        <v>3050</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -6574,7 +7628,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="n">
-        <v>3072</v>
+        <v>3050</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -6613,7 +7667,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="n">
-        <v>3072</v>
+        <v>3050</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -6652,7 +7706,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="n">
-        <v>3072</v>
+        <v>3050</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
@@ -6691,7 +7745,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="n">
-        <v>3072</v>
+        <v>3050</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
@@ -6730,7 +7784,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="n">
-        <v>3072</v>
+        <v>3050</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
@@ -6769,7 +7823,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="n">
-        <v>3072</v>
+        <v>3050</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -6808,7 +7862,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="n">
-        <v>3072</v>
+        <v>3050</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -6847,7 +7901,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="n">
-        <v>3072</v>
+        <v>3050</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -6886,7 +7940,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="n">
-        <v>3072</v>
+        <v>3050</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -6925,7 +7979,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="n">
-        <v>3072</v>
+        <v>3050</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
@@ -6964,7 +8018,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="n">
-        <v>3072</v>
+        <v>3050</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
@@ -7003,7 +8057,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="n">
-        <v>3072</v>
+        <v>3050</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
@@ -7042,7 +8096,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="n">
-        <v>3072</v>
+        <v>3050</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
@@ -7081,7 +8135,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="n">
-        <v>3072</v>
+        <v>3050</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -7120,7 +8174,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="n">
-        <v>3072</v>
+        <v>3050</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -7159,7 +8213,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="n">
-        <v>3072</v>
+        <v>3050</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
@@ -7198,7 +8252,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="n">
-        <v>3072</v>
+        <v>3050</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
@@ -7237,7 +8291,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="n">
-        <v>3072</v>
+        <v>3050</v>
       </c>
       <c r="K202" t="inlineStr">
         <is>
@@ -7276,7 +8330,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="n">
-        <v>3072</v>
+        <v>3050</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
@@ -7315,7 +8369,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="n">
-        <v>3072</v>
+        <v>3050</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
@@ -7354,7 +8408,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="n">
-        <v>3072</v>
+        <v>3050</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
@@ -7393,7 +8447,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="n">
-        <v>3072</v>
+        <v>3050</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
@@ -7432,7 +8486,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="n">
-        <v>3072</v>
+        <v>3050</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
@@ -7471,7 +8525,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="n">
-        <v>3072</v>
+        <v>3050</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
@@ -7510,7 +8564,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="n">
-        <v>3072</v>
+        <v>3050</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
@@ -7549,7 +8603,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="n">
-        <v>3072</v>
+        <v>3050</v>
       </c>
       <c r="K210" t="inlineStr">
         <is>
@@ -7588,7 +8642,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="n">
-        <v>3072</v>
+        <v>3050</v>
       </c>
       <c r="K211" t="inlineStr">
         <is>
@@ -7627,7 +8681,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="n">
-        <v>3072</v>
+        <v>3050</v>
       </c>
       <c r="K212" t="inlineStr">
         <is>
@@ -7666,7 +8720,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="n">
-        <v>3072</v>
+        <v>3050</v>
       </c>
       <c r="K213" t="inlineStr">
         <is>
@@ -7705,7 +8759,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="n">
-        <v>3072</v>
+        <v>3050</v>
       </c>
       <c r="K214" t="inlineStr">
         <is>
@@ -7744,7 +8798,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="n">
-        <v>3072</v>
+        <v>3050</v>
       </c>
       <c r="K215" t="inlineStr">
         <is>
@@ -7783,7 +8837,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="n">
-        <v>3072</v>
+        <v>3050</v>
       </c>
       <c r="K216" t="inlineStr">
         <is>
@@ -7822,7 +8876,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="n">
-        <v>3072</v>
+        <v>3050</v>
       </c>
       <c r="K217" t="inlineStr">
         <is>
@@ -7861,7 +8915,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="n">
-        <v>3072</v>
+        <v>3050</v>
       </c>
       <c r="K218" t="inlineStr">
         <is>
@@ -7900,7 +8954,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="n">
-        <v>3072</v>
+        <v>3050</v>
       </c>
       <c r="K219" t="inlineStr">
         <is>
@@ -7939,7 +8993,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="n">
-        <v>3072</v>
+        <v>3050</v>
       </c>
       <c r="K220" t="inlineStr">
         <is>
@@ -7978,7 +9032,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="n">
-        <v>3072</v>
+        <v>3050</v>
       </c>
       <c r="K221" t="inlineStr">
         <is>
@@ -8017,7 +9071,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="n">
-        <v>3072</v>
+        <v>3050</v>
       </c>
       <c r="K222" t="inlineStr">
         <is>
@@ -8056,7 +9110,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="n">
-        <v>3072</v>
+        <v>3050</v>
       </c>
       <c r="K223" t="inlineStr">
         <is>
@@ -8095,7 +9149,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="n">
-        <v>3072</v>
+        <v>3050</v>
       </c>
       <c r="K224" t="inlineStr">
         <is>
@@ -8134,7 +9188,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="n">
-        <v>3072</v>
+        <v>3050</v>
       </c>
       <c r="K225" t="inlineStr">
         <is>
@@ -8173,7 +9227,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="n">
-        <v>3072</v>
+        <v>3050</v>
       </c>
       <c r="K226" t="inlineStr">
         <is>
@@ -8212,7 +9266,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="n">
-        <v>3072</v>
+        <v>3050</v>
       </c>
       <c r="K227" t="inlineStr">
         <is>
@@ -8251,7 +9305,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="n">
-        <v>3072</v>
+        <v>3050</v>
       </c>
       <c r="K228" t="inlineStr">
         <is>
@@ -8290,7 +9344,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="n">
-        <v>3072</v>
+        <v>3050</v>
       </c>
       <c r="K229" t="inlineStr">
         <is>
@@ -8329,7 +9383,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="n">
-        <v>3072</v>
+        <v>3050</v>
       </c>
       <c r="K230" t="inlineStr">
         <is>
@@ -8368,7 +9422,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="n">
-        <v>3072</v>
+        <v>3050</v>
       </c>
       <c r="K231" t="inlineStr">
         <is>
@@ -8407,7 +9461,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="n">
-        <v>3072</v>
+        <v>3050</v>
       </c>
       <c r="K232" t="inlineStr">
         <is>
@@ -8446,7 +9500,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="n">
-        <v>3072</v>
+        <v>3050</v>
       </c>
       <c r="K233" t="inlineStr">
         <is>
@@ -8485,7 +9539,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="n">
-        <v>3072</v>
+        <v>3050</v>
       </c>
       <c r="K234" t="inlineStr">
         <is>
@@ -8524,7 +9578,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="n">
-        <v>3072</v>
+        <v>3050</v>
       </c>
       <c r="K235" t="inlineStr">
         <is>
@@ -8563,7 +9617,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="n">
-        <v>3072</v>
+        <v>3050</v>
       </c>
       <c r="K236" t="inlineStr">
         <is>
@@ -8602,7 +9656,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="n">
-        <v>3072</v>
+        <v>3050</v>
       </c>
       <c r="K237" t="inlineStr">
         <is>
@@ -8641,7 +9695,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="n">
-        <v>3072</v>
+        <v>3050</v>
       </c>
       <c r="K238" t="inlineStr">
         <is>
@@ -8680,7 +9734,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="n">
-        <v>3072</v>
+        <v>3050</v>
       </c>
       <c r="K239" t="inlineStr">
         <is>
@@ -8719,7 +9773,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="n">
-        <v>3072</v>
+        <v>3050</v>
       </c>
       <c r="K240" t="inlineStr">
         <is>
@@ -8758,7 +9812,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="n">
-        <v>3072</v>
+        <v>3050</v>
       </c>
       <c r="K241" t="inlineStr">
         <is>
@@ -8797,7 +9851,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="n">
-        <v>3072</v>
+        <v>3050</v>
       </c>
       <c r="K242" t="inlineStr">
         <is>
@@ -8836,7 +9890,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="n">
-        <v>3072</v>
+        <v>3050</v>
       </c>
       <c r="K243" t="inlineStr">
         <is>
@@ -8875,7 +9929,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="n">
-        <v>3072</v>
+        <v>3050</v>
       </c>
       <c r="K244" t="inlineStr">
         <is>
@@ -8914,7 +9968,7 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="n">
-        <v>3072</v>
+        <v>3050</v>
       </c>
       <c r="K245" t="inlineStr">
         <is>
@@ -8953,7 +10007,7 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="n">
-        <v>3072</v>
+        <v>3050</v>
       </c>
       <c r="K246" t="inlineStr">
         <is>
@@ -8992,7 +10046,7 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="n">
-        <v>3072</v>
+        <v>3050</v>
       </c>
       <c r="K247" t="inlineStr">
         <is>
@@ -9031,7 +10085,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="n">
-        <v>3072</v>
+        <v>3050</v>
       </c>
       <c r="K248" t="inlineStr">
         <is>
@@ -9070,7 +10124,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="n">
-        <v>3072</v>
+        <v>3050</v>
       </c>
       <c r="K249" t="inlineStr">
         <is>
@@ -9109,7 +10163,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="n">
-        <v>3072</v>
+        <v>3050</v>
       </c>
       <c r="K250" t="inlineStr">
         <is>
@@ -9148,7 +10202,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="n">
-        <v>3072</v>
+        <v>3050</v>
       </c>
       <c r="K251" t="inlineStr">
         <is>
@@ -9187,7 +10241,7 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="n">
-        <v>3072</v>
+        <v>3050</v>
       </c>
       <c r="K252" t="inlineStr">
         <is>
@@ -9226,7 +10280,7 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="n">
-        <v>3072</v>
+        <v>3050</v>
       </c>
       <c r="K253" t="inlineStr">
         <is>
@@ -9265,7 +10319,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="n">
-        <v>3072</v>
+        <v>3050</v>
       </c>
       <c r="K254" t="inlineStr">
         <is>
@@ -9304,7 +10358,7 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="n">
-        <v>3072</v>
+        <v>3050</v>
       </c>
       <c r="K255" t="inlineStr">
         <is>
@@ -9343,7 +10397,7 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="n">
-        <v>3072</v>
+        <v>3050</v>
       </c>
       <c r="K256" t="inlineStr">
         <is>
@@ -9382,7 +10436,7 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="n">
-        <v>3072</v>
+        <v>3050</v>
       </c>
       <c r="K257" t="inlineStr">
         <is>
@@ -9421,7 +10475,7 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="n">
-        <v>3072</v>
+        <v>3050</v>
       </c>
       <c r="K258" t="inlineStr">
         <is>
@@ -9460,7 +10514,7 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="n">
-        <v>3072</v>
+        <v>3050</v>
       </c>
       <c r="K259" t="inlineStr">
         <is>
@@ -9499,7 +10553,7 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="n">
-        <v>3072</v>
+        <v>3050</v>
       </c>
       <c r="K260" t="inlineStr">
         <is>
@@ -9538,7 +10592,7 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="n">
-        <v>3072</v>
+        <v>3050</v>
       </c>
       <c r="K261" t="inlineStr">
         <is>
@@ -9577,7 +10631,7 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="n">
-        <v>3072</v>
+        <v>3050</v>
       </c>
       <c r="K262" t="inlineStr">
         <is>
@@ -9612,19 +10666,19 @@
         <v>261517.5777426472</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="n">
-        <v>3072</v>
+        <v>3050</v>
       </c>
       <c r="K263" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L263" t="n">
-        <v>1</v>
+        <v>1.015983606557377</v>
       </c>
       <c r="M263" t="inlineStr"/>
     </row>
@@ -9651,17 +10705,11 @@
         <v>261517.5777426472</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9693,14 +10741,8 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9732,14 +10774,8 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9771,14 +10807,8 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9810,14 +10840,8 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9849,14 +10873,8 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9888,14 +10906,8 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9927,14 +10939,8 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9966,14 +10972,8 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10005,14 +11005,8 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10044,14 +11038,8 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10083,14 +11071,8 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10122,14 +11104,8 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10161,14 +11137,8 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10200,14 +11170,8 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10239,14 +11203,8 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10278,14 +11236,8 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10317,14 +11269,8 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10356,14 +11302,8 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10395,14 +11335,8 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10431,17 +11365,11 @@
         <v>245298.0304426472</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10473,14 +11401,8 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10512,14 +11434,8 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10551,14 +11467,8 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10587,17 +11497,11 @@
         <v>245752.604790395</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10629,14 +11533,8 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10665,17 +11563,11 @@
         <v>246027.481090395</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10704,17 +11596,11 @@
         <v>246011.391890395</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10743,17 +11629,11 @@
         <v>246045.139490395</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10785,14 +11665,8 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10821,17 +11695,11 @@
         <v>245885.537590395</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10860,17 +11728,11 @@
         <v>245949.537590395</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10899,17 +11761,11 @@
         <v>245949.537590395</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10938,17 +11794,11 @@
         <v>245949.537590395</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10977,17 +11827,11 @@
         <v>238947.537590395</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11019,14 +11863,8 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11055,17 +11893,11 @@
         <v>238556.537590395</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11094,17 +11926,11 @@
         <v>238572.599267234</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11133,17 +11959,11 @@
         <v>238572.599267234</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11172,17 +11992,11 @@
         <v>238272.599267234</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11211,17 +12025,11 @@
         <v>242517.711267234</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11253,14 +12061,8 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11289,17 +12091,11 @@
         <v>250101.677267234</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11328,17 +12124,11 @@
         <v>250101.677267234</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11367,17 +12157,11 @@
         <v>250001.677267234</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11406,17 +12190,11 @@
         <v>249427.6774672341</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11445,17 +12223,11 @@
         <v>249427.6774672341</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11484,17 +12256,11 @@
         <v>249427.6774672341</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11523,17 +12289,11 @@
         <v>249427.6774672341</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11562,17 +12322,11 @@
         <v>249427.6774672341</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11601,17 +12355,11 @@
         <v>249427.6774672341</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11640,17 +12388,11 @@
         <v>249427.6774672341</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11679,17 +12421,11 @@
         <v>249427.6774672341</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11718,17 +12454,11 @@
         <v>258903.8536028452</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11757,17 +12487,11 @@
         <v>258458.9536028452</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11796,17 +12520,11 @@
         <v>258437.6110028452</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11835,17 +12553,11 @@
         <v>258363.8795028452</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11874,17 +12586,11 @@
         <v>258188.5379028452</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11913,17 +12619,11 @@
         <v>258188.5379028452</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11952,17 +12652,11 @@
         <v>258086.6615028452</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11991,17 +12685,11 @@
         <v>258086.6615028452</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -12030,17 +12718,11 @@
         <v>258086.6615028452</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -12069,17 +12751,11 @@
         <v>258176.2620028452</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -12108,17 +12784,11 @@
         <v>259113.4513028452</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -12147,17 +12817,11 @@
         <v>259113.4513028452</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12186,17 +12850,11 @@
         <v>259113.4513028452</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12225,17 +12883,11 @@
         <v>259113.4513028452</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12264,17 +12916,11 @@
         <v>259773.1845028452</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12303,17 +12949,11 @@
         <v>259672.1597028452</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12342,17 +12982,11 @@
         <v>259672.1597028452</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12381,17 +13015,11 @@
         <v>259615.6291028452</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12420,17 +13048,11 @@
         <v>259188.6700028452</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12459,17 +13081,11 @@
         <v>259188.6700028452</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J336" t="inlineStr"/>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12498,17 +13114,11 @@
         <v>259188.6700028452</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12537,17 +13147,11 @@
         <v>259188.6700028452</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12576,17 +13180,11 @@
         <v>258986.7611028452</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J339" t="inlineStr"/>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12615,17 +13213,11 @@
         <v>259441.2180028452</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12654,17 +13246,11 @@
         <v>259162.4229028452</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12693,17 +13279,11 @@
         <v>259323.7132254258</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12732,17 +13312,11 @@
         <v>258812.2075254258</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12771,17 +13345,11 @@
         <v>257607.2075254258</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12810,17 +13378,11 @@
         <v>257715.9096254258</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J345" t="inlineStr"/>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12852,14 +13414,8 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J346" t="inlineStr"/>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12888,17 +13444,11 @@
         <v>259231.1806254258</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J347" t="inlineStr"/>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12927,17 +13477,11 @@
         <v>259231.1806254258</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J348" t="inlineStr"/>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12966,17 +13510,11 @@
         <v>259022.9785254258</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J349" t="inlineStr"/>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -13005,17 +13543,11 @@
         <v>258959.7137254258</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J350" t="inlineStr"/>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -13047,14 +13579,8 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J351" t="inlineStr"/>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -13086,14 +13612,8 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J352" t="inlineStr"/>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -13125,14 +13645,8 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J353" t="inlineStr"/>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -13164,14 +13678,8 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J354" t="inlineStr"/>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -13203,14 +13711,8 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J355" t="inlineStr"/>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -13239,17 +13741,11 @@
         <v>258546.6812254258</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J356" t="inlineStr"/>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -13278,17 +13774,11 @@
         <v>258546.6812254258</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -13317,17 +13807,11 @@
         <v>258546.6812254258</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13359,14 +13843,8 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13398,14 +13876,8 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13437,14 +13909,8 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13476,14 +13942,8 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J362" t="inlineStr"/>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13515,14 +13975,8 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J363" t="inlineStr"/>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13554,14 +14008,8 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13593,14 +14041,8 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J365" t="inlineStr"/>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13632,14 +14074,8 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13671,14 +14107,8 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J367" t="inlineStr"/>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13710,14 +14140,8 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J368" t="inlineStr"/>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13749,14 +14173,8 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J369" t="inlineStr"/>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13788,14 +14206,8 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J370" t="inlineStr"/>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13827,14 +14239,8 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J371" t="inlineStr"/>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13866,14 +14272,8 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J372" t="inlineStr"/>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13905,14 +14305,8 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J373" t="inlineStr"/>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13944,14 +14338,8 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J374" t="inlineStr"/>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13983,14 +14371,8 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J375" t="inlineStr"/>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -14022,14 +14404,8 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J376" t="inlineStr"/>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -14061,14 +14437,8 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J377" t="inlineStr"/>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -14100,14 +14470,8 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J378" t="inlineStr"/>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -14139,14 +14503,8 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J379" t="inlineStr"/>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -14178,14 +14536,8 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J380" t="inlineStr"/>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -14217,14 +14569,8 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J381" t="inlineStr"/>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -14256,14 +14602,8 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J382" t="inlineStr"/>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -14295,14 +14635,8 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J383" t="inlineStr"/>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -14334,14 +14668,8 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J384" t="inlineStr"/>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -14373,14 +14701,8 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J385" t="inlineStr"/>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -14412,14 +14734,8 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J386" t="inlineStr"/>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -14451,14 +14767,8 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J387" t="inlineStr"/>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -14490,14 +14800,8 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J388" t="inlineStr"/>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14529,14 +14833,8 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J389" t="inlineStr"/>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14568,14 +14866,8 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J390" t="inlineStr"/>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14607,14 +14899,8 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J391" t="inlineStr"/>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14646,14 +14932,8 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J392" t="inlineStr"/>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14685,14 +14965,8 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J393" t="inlineStr"/>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14724,14 +14998,8 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J394" t="inlineStr"/>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14763,14 +15031,8 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J395" t="inlineStr"/>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14802,14 +15064,8 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J396" t="inlineStr"/>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14841,14 +15097,8 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J397" t="inlineStr"/>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14880,14 +15130,8 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J398" t="inlineStr"/>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14919,14 +15163,8 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J399" t="inlineStr"/>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14958,14 +15196,8 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J400" t="inlineStr"/>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14997,14 +15229,8 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J401" t="inlineStr"/>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -15036,14 +15262,8 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J402" t="inlineStr"/>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -15075,14 +15295,8 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J403" t="inlineStr"/>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -15111,17 +15325,11 @@
         <v>248527.3677236837</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J404" t="inlineStr"/>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -15150,17 +15358,11 @@
         <v>248486.8279236837</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J405" t="inlineStr"/>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -15192,14 +15394,8 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J406" t="inlineStr"/>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -15231,14 +15427,8 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J407" t="inlineStr"/>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -15270,14 +15460,8 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J408" t="inlineStr"/>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -15309,14 +15493,8 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J409" t="inlineStr"/>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -15348,14 +15526,8 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J410" t="inlineStr"/>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -15387,14 +15559,8 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J411" t="inlineStr"/>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -15426,14 +15592,8 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J412" t="inlineStr"/>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -15465,14 +15625,8 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J413" t="inlineStr"/>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -15504,14 +15658,8 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J414" t="inlineStr"/>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -15543,14 +15691,8 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J415" t="inlineStr"/>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -15582,14 +15724,8 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J416" t="inlineStr"/>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -15621,14 +15757,8 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J417" t="inlineStr"/>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -15660,14 +15790,8 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J418" t="inlineStr"/>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -15699,14 +15823,8 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J419" t="inlineStr"/>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -15738,14 +15856,8 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J420" t="inlineStr"/>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -15777,14 +15889,8 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J421" t="inlineStr"/>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -15816,14 +15922,8 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J422" t="inlineStr"/>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -15855,14 +15955,8 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J423" t="inlineStr"/>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -15891,17 +15985,11 @@
         <v>248668.0333236837</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J424" t="inlineStr"/>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -15930,17 +16018,11 @@
         <v>247343.6848236837</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J425" t="inlineStr"/>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -15969,17 +16051,11 @@
         <v>247343.6848236837</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J426" t="inlineStr"/>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -16008,17 +16084,11 @@
         <v>247343.6848236837</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J427" t="inlineStr"/>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -16047,17 +16117,11 @@
         <v>246750.6832236837</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J428" t="inlineStr"/>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -16086,17 +16150,11 @@
         <v>246750.8832236837</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J429" t="inlineStr"/>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -16125,17 +16183,11 @@
         <v>247009.9391236838</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J430" t="inlineStr"/>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -16164,17 +16216,11 @@
         <v>247010.1391236838</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J431" t="inlineStr"/>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -16203,17 +16249,11 @@
         <v>244545.5477236838</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J432" t="inlineStr"/>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -16242,17 +16282,11 @@
         <v>244545.7477236838</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J433" t="inlineStr"/>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -16281,17 +16315,11 @@
         <v>244545.9477236838</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J434" t="inlineStr"/>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -16320,17 +16348,11 @@
         <v>244616.8842236838</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J435" t="inlineStr"/>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -16359,17 +16381,11 @@
         <v>244505.2478236838</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J436" t="inlineStr"/>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -16398,17 +16414,11 @@
         <v>244532.1597236838</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J437" t="inlineStr"/>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -16437,17 +16447,11 @@
         <v>245182.1597236838</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J438" t="inlineStr"/>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -16476,17 +16480,11 @@
         <v>245105.3685236838</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J439" t="inlineStr"/>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -16515,17 +16513,11 @@
         <v>246405.3685236838</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J440" t="inlineStr"/>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -16554,17 +16546,11 @@
         <v>246371.6749236838</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J441" t="inlineStr"/>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -16593,17 +16579,11 @@
         <v>246159.3573236838</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J442" t="inlineStr"/>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -16632,17 +16612,11 @@
         <v>246159.5573236838</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J443" t="inlineStr"/>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -16671,17 +16645,11 @@
         <v>246059.5573236838</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J444" t="inlineStr"/>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -16710,17 +16678,11 @@
         <v>246059.5573236838</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J445" t="inlineStr"/>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -16749,17 +16711,11 @@
         <v>246614.3024236838</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J446" t="inlineStr"/>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -16788,17 +16744,11 @@
         <v>246610.8029236838</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J447" t="inlineStr"/>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -16827,17 +16777,11 @@
         <v>246293.2668236838</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J448" t="inlineStr"/>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -16866,17 +16810,11 @@
         <v>246293.2668236838</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J449" t="inlineStr"/>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -16905,17 +16843,11 @@
         <v>246375.302848129</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J450" t="inlineStr"/>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -16944,17 +16876,11 @@
         <v>246261.980448129</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J451" t="inlineStr"/>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -16983,17 +16909,11 @@
         <v>244097.164048129</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J452" t="inlineStr"/>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -17022,17 +16942,11 @@
         <v>244098.312048129</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J453" t="inlineStr"/>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -17061,17 +16975,11 @@
         <v>244071.157148129</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J454" t="inlineStr"/>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -17100,17 +17008,11 @@
         <v>244071.157148129</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J455" t="inlineStr"/>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -17139,17 +17041,11 @@
         <v>243641.157148129</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J456" t="inlineStr"/>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -17178,17 +17074,11 @@
         <v>243641.157148129</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J457" t="inlineStr"/>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -17217,17 +17107,11 @@
         <v>243491.308648129</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J458" t="inlineStr"/>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -17256,17 +17140,11 @@
         <v>241991.308648129</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J459" t="inlineStr"/>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -17295,17 +17173,11 @@
         <v>241991.308648129</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J460" t="inlineStr"/>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -17334,17 +17206,11 @@
         <v>242015.115048129</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J461" t="inlineStr"/>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -17373,17 +17239,11 @@
         <v>241897.589448129</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J462" t="inlineStr"/>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -17412,17 +17272,11 @@
         <v>241897.589448129</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J463" t="inlineStr"/>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -17451,17 +17305,11 @@
         <v>241897.589448129</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J464" t="inlineStr"/>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -17490,17 +17338,11 @@
         <v>241897.589448129</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J465" t="inlineStr"/>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -17529,17 +17371,11 @@
         <v>241897.589448129</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J466" t="inlineStr"/>
+      <c r="K466" t="inlineStr"/>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -17568,17 +17404,11 @@
         <v>241903.589448129</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J467" t="inlineStr"/>
+      <c r="K467" t="inlineStr"/>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -17607,17 +17437,11 @@
         <v>241751.026248129</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J468" t="inlineStr"/>
+      <c r="K468" t="inlineStr"/>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -17646,17 +17470,11 @@
         <v>241751.026248129</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J469" t="inlineStr"/>
+      <c r="K469" t="inlineStr"/>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -17685,17 +17503,11 @@
         <v>241752.026248129</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J470" t="inlineStr"/>
+      <c r="K470" t="inlineStr"/>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -17724,17 +17536,11 @@
         <v>241724.019648129</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J471" t="inlineStr"/>
+      <c r="K471" t="inlineStr"/>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -17763,17 +17569,11 @@
         <v>241724.019648129</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J472" t="inlineStr"/>
+      <c r="K472" t="inlineStr"/>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -17802,17 +17602,11 @@
         <v>241725.019648129</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J473" t="inlineStr"/>
+      <c r="K473" t="inlineStr"/>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -17841,17 +17635,11 @@
         <v>241726.019648129</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J474" t="inlineStr"/>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -17880,17 +17668,11 @@
         <v>241725.019648129</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J475" t="inlineStr"/>
+      <c r="K475" t="inlineStr"/>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -17919,17 +17701,11 @@
         <v>239542.750248129</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J476" t="inlineStr"/>
+      <c r="K476" t="inlineStr"/>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -17961,14 +17737,8 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J477" t="inlineStr"/>
+      <c r="K477" t="inlineStr"/>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -18000,14 +17770,8 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J478" t="inlineStr"/>
+      <c r="K478" t="inlineStr"/>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -18039,14 +17803,8 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J479" t="inlineStr"/>
+      <c r="K479" t="inlineStr"/>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -18078,14 +17836,8 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J480" t="inlineStr"/>
+      <c r="K480" t="inlineStr"/>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -18117,14 +17869,8 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J481" t="inlineStr"/>
+      <c r="K481" t="inlineStr"/>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -18156,14 +17902,8 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J482" t="inlineStr"/>
+      <c r="K482" t="inlineStr"/>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -18195,14 +17935,8 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J483" t="inlineStr"/>
+      <c r="K483" t="inlineStr"/>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -18234,14 +17968,8 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J484" t="inlineStr"/>
+      <c r="K484" t="inlineStr"/>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -18273,14 +18001,8 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K485" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J485" t="inlineStr"/>
+      <c r="K485" t="inlineStr"/>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -18312,14 +18034,8 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K486" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J486" t="inlineStr"/>
+      <c r="K486" t="inlineStr"/>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -18351,14 +18067,8 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K487" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J487" t="inlineStr"/>
+      <c r="K487" t="inlineStr"/>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -18390,14 +18100,8 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K488" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J488" t="inlineStr"/>
+      <c r="K488" t="inlineStr"/>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -18429,14 +18133,8 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K489" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J489" t="inlineStr"/>
+      <c r="K489" t="inlineStr"/>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -18468,14 +18166,8 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K490" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J490" t="inlineStr"/>
+      <c r="K490" t="inlineStr"/>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -18507,14 +18199,8 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="n">
-        <v>3072</v>
-      </c>
-      <c r="K491" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J491" t="inlineStr"/>
+      <c r="K491" t="inlineStr"/>
       <c r="L491" t="n">
         <v>1</v>
       </c>
